--- a/output/below_50/tRNA-Leu-CAG-2-2.xlsx
+++ b/output/below_50/tRNA-Leu-CAG-2-2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="85">
   <si>
     <t>chr16</t>
   </si>
@@ -267,141 +267,6 @@
   </si>
   <si>
     <t>66</t>
-  </si>
-  <si>
-    <t>57334456</t>
-  </si>
-  <si>
-    <t>57334479</t>
-  </si>
-  <si>
-    <t>AAGCAGTCAGGATGGCCGAG</t>
-  </si>
-  <si>
-    <t>99% (72)</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>57334606</t>
-  </si>
-  <si>
-    <t>57334629</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>57334626</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>GGGCGTGGAGAGATGGGACA</t>
-  </si>
-  <si>
-    <t>91% (64)</t>
-  </si>
-  <si>
-    <t>91% (71)</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 24, Doench 2016: 91%, Moreno-Mateos: 91%</t>
-  </si>
-  <si>
-    <t>1.44731E+11</t>
-  </si>
-  <si>
-    <t>57334610</t>
-  </si>
-  <si>
-    <t>57334633</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>57334630</t>
-  </si>
-  <si>
-    <t>GTGGAGAGATGGGACAAGGA</t>
-  </si>
-  <si>
-    <t>81% (60)</t>
-  </si>
-  <si>
-    <t>76% (58)</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 33, Doench 2016: 81%, Moreno-Mateos: 76%</t>
-  </si>
-  <si>
-    <t>3.11734E+11</t>
-  </si>
-  <si>
-    <t>57334785</t>
-  </si>
-  <si>
-    <t>57334808</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>57334788</t>
-  </si>
-  <si>
-    <t>CAAGGTTGCTTGCAGATTTC</t>
-  </si>
-  <si>
-    <t>1% (16)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 46, Doench 2016: 1%, Moreno-Mateos: 48%</t>
-  </si>
-  <si>
-    <t>71463890409</t>
-  </si>
-  <si>
-    <t>57334803</t>
-  </si>
-  <si>
-    <t>57334826</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>57334806</t>
-  </si>
-  <si>
-    <t>TTGTGCACAAGGGAAATGCA</t>
-  </si>
-  <si>
-    <t>99% (73)</t>
-  </si>
-  <si>
-    <t>65% (52)</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 41, Doench 2016: 99%, Moreno-Mateos: 65%</t>
-  </si>
-  <si>
-    <t>3.66079E+11</t>
   </si>
 </sst>
 </file>
@@ -446,7 +311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1042,301 +907,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
-        <v>88</v>
-      </c>
-      <c r="O11" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" t="s">
-        <v>92</v>
-      </c>
-      <c r="N12" t="s">
-        <v>96</v>
-      </c>
-      <c r="O12" t="s">
-        <v>97</v>
-      </c>
-      <c r="P12" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>99</v>
-      </c>
-      <c r="R12" t="s">
-        <v>100</v>
-      </c>
-      <c r="S12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>106</v>
-      </c>
-      <c r="L13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" t="s">
-        <v>104</v>
-      </c>
-      <c r="N13" t="s">
-        <v>107</v>
-      </c>
-      <c r="O13" t="s">
-        <v>108</v>
-      </c>
-      <c r="P13" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>68</v>
-      </c>
-      <c r="R13" t="s">
-        <v>110</v>
-      </c>
-      <c r="S13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" t="s">
-        <v>114</v>
-      </c>
-      <c r="N14" t="s">
-        <v>117</v>
-      </c>
-      <c r="O14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P14" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>68</v>
-      </c>
-      <c r="R14" t="s">
-        <v>118</v>
-      </c>
-      <c r="S14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>124</v>
-      </c>
-      <c r="L15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" t="s">
-        <v>122</v>
-      </c>
-      <c r="N15" t="s">
-        <v>125</v>
-      </c>
-      <c r="O15" t="s">
-        <v>126</v>
-      </c>
-      <c r="P15" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R15" t="s">
-        <v>128</v>
-      </c>
-      <c r="S15" t="s">
-        <v>129</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
